--- a/output/double_track_results/double_track_simulation_crane_1_hostler_24.xlsx
+++ b/output/double_track_results/double_track_simulation_crane_1_hostler_24.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>container_id</t>
   </si>
   <si>
-    <t>train_arrival</t>
+    <t>train_arrival_expected</t>
+  </si>
+  <si>
+    <t>train_arrival_actual</t>
+  </si>
+  <si>
+    <t>crane_unload</t>
   </si>
   <si>
     <t>hostler_pickup</t>
@@ -52,49 +58,37 @@
     <t>IC-1-Train-13</t>
   </si>
   <si>
+    <t>IC-1-Train-22</t>
+  </si>
+  <si>
     <t>IC-1-Train-31</t>
   </si>
   <si>
-    <t>IC-1-Train-44</t>
+    <t>IC-2-Train-22</t>
   </si>
   <si>
     <t>IC-2-Train-31</t>
   </si>
   <si>
-    <t>IC-2-Train-44</t>
-  </si>
-  <si>
     <t>IC-3-Train-31</t>
   </si>
   <si>
-    <t>IC-3-Train-44</t>
-  </si>
-  <si>
-    <t>IC-4-Train-44</t>
-  </si>
-  <si>
     <t>OC-1-Train-13</t>
   </si>
   <si>
+    <t>OC-1-Train-22</t>
+  </si>
+  <si>
     <t>OC-1-Train-31</t>
   </si>
   <si>
-    <t>OC-1-Train-44</t>
-  </si>
-  <si>
     <t>OC-2-Train-13</t>
   </si>
   <si>
-    <t>OC-2-Train-44</t>
+    <t>OC-2-Train-22</t>
   </si>
   <si>
     <t>OC-3-Train-13</t>
-  </si>
-  <si>
-    <t>OC-3-Train-44</t>
-  </si>
-  <si>
-    <t>OC-4-Train-44</t>
   </si>
 </sst>
 </file>
@@ -163,20 +157,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:K17" totalsRowShown="0">
-  <autoFilter ref="A1:K17"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:M13" totalsRowShown="0">
+  <autoFilter ref="A1:M13"/>
+  <tableColumns count="13">
     <tableColumn id="1" name="container_id" dataDxfId="0"/>
-    <tableColumn id="2" name="train_arrival" dataDxfId="1"/>
-    <tableColumn id="3" name="hostler_pickup" dataDxfId="2"/>
-    <tableColumn id="4" name="hostler_dropoff" dataDxfId="2"/>
-    <tableColumn id="5" name="truck_pickup" dataDxfId="2"/>
-    <tableColumn id="6" name="truck_exit" dataDxfId="2"/>
-    <tableColumn id="7" name="truck_arrival" dataDxfId="2"/>
-    <tableColumn id="8" name="truck_dropoff" dataDxfId="2"/>
-    <tableColumn id="9" name="crane_load" dataDxfId="2"/>
-    <tableColumn id="10" name="train_depart" dataDxfId="2"/>
-    <tableColumn id="11" name="container_processing_time" dataDxfId="2"/>
+    <tableColumn id="2" name="train_arrival_expected" dataDxfId="1"/>
+    <tableColumn id="3" name="train_arrival_actual" dataDxfId="2"/>
+    <tableColumn id="4" name="crane_unload" dataDxfId="2"/>
+    <tableColumn id="5" name="hostler_pickup" dataDxfId="2"/>
+    <tableColumn id="6" name="hostler_dropoff" dataDxfId="2"/>
+    <tableColumn id="7" name="truck_pickup" dataDxfId="2"/>
+    <tableColumn id="8" name="truck_exit" dataDxfId="2"/>
+    <tableColumn id="9" name="truck_arrival" dataDxfId="2"/>
+    <tableColumn id="10" name="truck_dropoff" dataDxfId="2"/>
+    <tableColumn id="11" name="crane_load" dataDxfId="2"/>
+    <tableColumn id="12" name="train_depart" dataDxfId="2"/>
+    <tableColumn id="13" name="container_processing_time" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -467,13 +463,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,441 +503,395 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>0.1368222684554209</v>
+        <v>0.4012620973590398</v>
       </c>
       <c r="D2" s="3">
-        <v>0.2368222684554209</v>
+        <v>0.434728007083117</v>
       </c>
       <c r="E2" s="3">
-        <v>0.2368222684554209</v>
+        <v>0.5368725806627875</v>
       </c>
       <c r="F2" s="3">
-        <v>0.2800599011311314</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+        <v>0.6368725806627875</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.6368725806627875</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.6994045595238236</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3">
-        <v>0.2800599011311314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
+        <v>0.6994045595238236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>0.1346959038942287</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0.2346959038942287</v>
+        <v>0.03343083400963254</v>
       </c>
       <c r="E3" s="3">
-        <v>0.2346959038942287</v>
+        <v>0.1350213263398997</v>
       </c>
       <c r="F3" s="3">
-        <v>0.2946703611286254</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+        <v>0.2350213263398997</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.2350213263398997</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.2760064111518643</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3">
-        <v>0.2946703611286254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <v>0.2760064111518643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>0.5495829002468341</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0.6495829002468341</v>
+        <v>0.03349820097239071</v>
       </c>
       <c r="E4" s="3">
-        <v>0.6495829002468341</v>
+        <v>0.1359970827830653</v>
       </c>
       <c r="F4" s="3">
-        <v>0.6871120104993547</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+        <v>0.2359970827830653</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.2359970827830653</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.2890694083111325</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3">
-        <v>0.6871120104993547</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <v>0.2890694083111325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1694562449397782</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2694562449397782</v>
+        <v>0.06694823214528615</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2694562449397782</v>
+        <v>0.168435252435243</v>
       </c>
       <c r="F5" s="3">
-        <v>0.3230981521299287</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+        <v>0.268435252435243</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.268435252435243</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.3288549407203322</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3">
-        <v>0.3230981521299287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <v>0.3288549407203322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>0.5825617080096358</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0.6825617080096358</v>
+        <v>0.06699045009329647</v>
       </c>
       <c r="E6" s="3">
-        <v>0.6825617080096358</v>
+        <v>0.1703679776658059</v>
       </c>
       <c r="F6" s="3">
-        <v>0.7434550502245911</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+        <v>0.2703679776658059</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.2703679776658059</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.3145029957037119</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3">
-        <v>0.7434550502245911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <v>0.3145029957037119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2028516310662629</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3028516310662629</v>
+        <v>0.1004375446579027</v>
       </c>
       <c r="E7" s="3">
-        <v>0.3028516310662629</v>
+        <v>0.2023284389809587</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3420375329035759</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+        <v>0.3023284389809587</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.3023284389809587</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.3557966690074934</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3">
-        <v>0.3420375329035759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <v>0.3557966690074934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.6174933587612709</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.7174933587612708</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3">
-        <v>0.7174933587612708</v>
+        <v>0.5368725806627875</v>
       </c>
       <c r="F8" s="3">
-        <v>0.7689886106984976</v>
+        <v>0.7026214675004673</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="3">
+        <v>0.0548744309784345</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.0548744309784345</v>
+      </c>
       <c r="K8" s="3">
-        <v>0.7689886106984976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>1.050644244076748</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.117622572422078</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.9957698130983138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.6505144139365956</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.7505144139365956</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3">
-        <v>0.7505144139365956</v>
+        <v>0.1945412110013685</v>
       </c>
       <c r="F9" s="3">
-        <v>0.7996409360875989</v>
+        <v>0.346331349316497</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="3">
+        <v>0.05842462822673908</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.05842462822673908</v>
+      </c>
       <c r="K9" s="3">
-        <v>0.7996409360875989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.4132855821834595</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.4132855821834595</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.3548609539567205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>0.3080940624345295</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>0.04029837330187249</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.04029837330187249</v>
-      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>0.1359970827830653</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.3679067078800695</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3">
-        <v>0.4460337254561937</v>
+        <v>0.0618048520969709</v>
       </c>
       <c r="J10" s="3">
-        <v>0.4794779981141363</v>
+        <v>0.0618048520969709</v>
       </c>
       <c r="K10" s="3">
-        <v>0.4057353521543212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.4012620973590398</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.4012620973590398</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.3394572452620689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>0.3811880764514197</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <v>0.05358940142952658</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.05358940142952658</v>
-      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>0.7026214675004673</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.847137641265219</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3">
-        <v>0.4145607892846609</v>
+        <v>0.0630842734004359</v>
       </c>
       <c r="J11" s="3">
-        <v>0.4145607892846609</v>
+        <v>0.0630842734004359</v>
       </c>
       <c r="K11" s="3">
-        <v>0.3609713878551344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>1.084058720224714</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.117622572422078</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1.020974446824278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="3">
-        <v>0.3157259174671416</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.4461430476294657</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <v>0.04553978877355151</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.04553978877355151</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>0.1350213263398997</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1945412110013685</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <v>0.6998025644909402</v>
+        <v>0.04383480417755464</v>
       </c>
       <c r="J12" s="3">
-        <v>0.800093193877321</v>
+        <v>0.04383480417755464</v>
       </c>
       <c r="K12" s="3">
-        <v>0.6542627757173888</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.3797500421781292</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.4132855821834595</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.3359152380005746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="3">
-        <v>0.3330239350315541</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.5043212338688665</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <v>0.04364259925540356</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.04364259925540356</v>
-      </c>
-      <c r="I13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>0.847137641265219</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.017264461360038</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>0.06377372893032215</v>
+      </c>
       <c r="J13" s="3">
-        <v>0.4794779981141363</v>
-      </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3">
-        <v>0.2723079101147569</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.4930673477869991</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <v>0.0417304110719407</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.0417304110719407</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.7665738514757837</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.800093193877321</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.7248434404038431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
-        <v>0.4126933375045342</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <v>0.0518967122586644</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.0518967122586644</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.4794779981141363</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.4794779981141363</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.4275812858554719</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3">
-        <v>0.3021170747222311</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.4872506751960159</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
-        <v>0.03886313581894885</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.03886313581894885</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.7332123821009048</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0.800093193877321</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0.6943492462819559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
-        <v>0.6663986908453293</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <v>0.04794793224770687</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.04794793224770687</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.800093193877321</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.800093193877321</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.7521452616296141</v>
+        <v>0.06377372893032215</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.117622572422078</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.117622572422078</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.053848843491756</v>
       </c>
     </row>
   </sheetData>
